--- a/BIO247Project/BIO247ProjectArticles/LTApath.xlsx
+++ b/BIO247Project/BIO247ProjectArticles/LTApath.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e56c0a1657867c1/Desktop/BIO247/BIO247Project/BIO247ProjectArticles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{C83293E2-0F1F-482B-A839-CB8EEFF79CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76270F20-2DC0-4E9D-B4F4-A32EC054DD69}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{C83293E2-0F1F-482B-A839-CB8EEFF79CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22CC2EC5-D0DE-4731-A278-6E56E69854A5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B245681A-7A8E-451D-8BCD-FB80D75C9372}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="136">
   <si>
     <t>pathways</t>
   </si>
@@ -47,69 +47,21 @@
     <t>TLR signaling pathways in cerebral IT</t>
   </si>
   <si>
-    <t>TCGA-KICH [miRNA vs RNA] GO: regulation of cytokinesis [2040017207]</t>
-  </si>
-  <si>
     <t>IL2 signaling events mediated by STATS (v2.0)</t>
   </si>
   <si>
-    <t>TCGA-THYM [miRNA vs RNA] GO: inflammatory response to antigenic stimulus [2040000722]</t>
-  </si>
-  <si>
-    <t>TCGA-TGCT [miRNA vs RNA] GO: positive regulation of immune system process [2040006593]</t>
-  </si>
-  <si>
-    <t>TCGA-UVM [miRNA vs RNA] GO: immune response [2040007920]</t>
-  </si>
-  <si>
     <t>L4-mediated signaling events (v2.0)</t>
   </si>
   <si>
-    <t>TCGA-UVM [miRNA vs RNA] GO: immune response [2040007968]</t>
-  </si>
-  <si>
     <t>\WP254 - Apoptosis - Homo sapiens</t>
   </si>
   <si>
-    <t>TCGA-THCA [miRNA vs RNA] GO: immune response [2040011563]</t>
-  </si>
-  <si>
-    <t>TCGA-ESCA [miRNA vs RNA] GO: lymphocyte activation [2040005718]</t>
-  </si>
-  <si>
     <t>WP8098 - T-cell activation SARS-CoV-2 - Homo sapiens</t>
   </si>
   <si>
-    <t>TCGA-THYM [miRNA vs RNA] GO: immune response [2040000715]</t>
-  </si>
-  <si>
     <t>\WPS5095 - Overview of proinflammatory and profibrotic mediators - Homo sapiens</t>
   </si>
   <si>
-    <t>TCGA-DLBC [miRNA vs RNA] GO: endoplasmic reticulum calcium ion homeostasis [2040009461]</t>
-  </si>
-  <si>
-    <t>TCGA-PRAD [miRNA vs RNA] GO: immune response [2040016395]</t>
-  </si>
-  <si>
-    <t>TCGA-COAD [miRNA vs RNA] GO: immune response [2040022190]</t>
-  </si>
-  <si>
-    <t>TCGA-STAD [miRNA vs RNA] GO: immune response [2040020232]</t>
-  </si>
-  <si>
-    <t>TCGA-UCEC [miRNA vs RNA] GO: immune response [2040021840]</t>
-  </si>
-  <si>
-    <t>TCGA-STES [miRNA vs RNA] GO: immune response [2040019729]</t>
-  </si>
-  <si>
-    <t>TCGA-CESC [miRNA vs RNA] GO: immune response [2040023717]</t>
-  </si>
-  <si>
-    <t>TCGA-KIRP [miRNA vs RNA] GO: immune response [2040001285]</t>
-  </si>
-  <si>
     <t>\WP2806 - Complement system - Homo sapiens</t>
   </si>
   <si>
@@ -122,33 +74,6 @@
     <t>Resisting cell death</t>
   </si>
   <si>
-    <t>TCGA-MESO [miRNA vs RNA] GO: immune response [2040010122]</t>
-  </si>
-  <si>
-    <t>TCGA-LUSC [miRNA vs RNA] GO: immune response [2040012936]</t>
-  </si>
-  <si>
-    <t>TCGA-KIRC [miRNA vs RNA] GO: immune response [2040014138]</t>
-  </si>
-  <si>
-    <t>TCGA-BLCA miRNA vs RNA] GO: immune response [2040017985]</t>
-  </si>
-  <si>
-    <t>TCGA-HNSC [miRNA vs RNA] GO: immune response [2040021099]</t>
-  </si>
-  <si>
-    <t>TCGA-BRCA [miRNA vs RNA] GO: immune response [2040004921]</t>
-  </si>
-  <si>
-    <t>TCGA-PAAD [miRNA vs RNA] GO: immune response [2040018589]</t>
-  </si>
-  <si>
-    <t>TCGA-LIHC [miRNA vs RNA] GO: immune response [2040000150]</t>
-  </si>
-  <si>
-    <t>TCGA-SKCM [miRNA vs RNA] GO: immune response [2040002961]</t>
-  </si>
-  <si>
     <t>transition_network_Ingressed_Mesoderm_to_CCPM-derived_Skeletal-Myogenic_Progenitors.bxt</t>
   </si>
   <si>
@@ -434,12 +359,6 @@
     <t>Complement activation  regulation  and molecular basis for complement-related diseases</t>
   </si>
   <si>
-    <t>TCGA-READ [miRNA vs RNA] GO: phototransduction  visible light [2040002566]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCGA-LUAD [miRNA vs RNA] GO: immune response [2040001892] </t>
-  </si>
-  <si>
     <t>Integrated association score (IAS) network  NeST project</t>
   </si>
   <si>
@@ -447,6 +366,84 @@
   </si>
   <si>
     <t>FunCoup 5 (H. sapiens) - High Confidence  PFC &gt; 0.95</t>
+  </si>
+  <si>
+    <t>TCGA-KICH [miRNA vs RNA] GO: regulation of cytokinesis</t>
+  </si>
+  <si>
+    <t>TCGA-THYM [miRNA vs RNA] GO: inflammatory response to antigenic stimulus</t>
+  </si>
+  <si>
+    <t>TCGA-TGCT [miRNA vs RNA] GO: positive regulation of immune system process</t>
+  </si>
+  <si>
+    <t>TCGA-UVM [miRNA vs RNA] GO: immune response</t>
+  </si>
+  <si>
+    <t>TCGA-READ [miRNA vs RNA] GO: phototransduction  visible light</t>
+  </si>
+  <si>
+    <t>TCGA-THCA [miRNA vs RNA] GO: immune response</t>
+  </si>
+  <si>
+    <t>TCGA-ESCA [miRNA vs RNA] GO: lymphocyte activation</t>
+  </si>
+  <si>
+    <t>TCGA-THYM [miRNA vs RNA] GO: immune response</t>
+  </si>
+  <si>
+    <t>TCGA-DLBC [miRNA vs RNA] GO: endoplasmic reticulum calcium ion homeostasis</t>
+  </si>
+  <si>
+    <t>TCGA-PRAD [miRNA vs RNA] GO: immune response</t>
+  </si>
+  <si>
+    <t>TCGA-COAD [miRNA vs RNA] GO: immune response</t>
+  </si>
+  <si>
+    <t>TCGA-STAD [miRNA vs RNA] GO: immune response</t>
+  </si>
+  <si>
+    <t>TCGA-UCEC [miRNA vs RNA] GO: immune response</t>
+  </si>
+  <si>
+    <t>TCGA-STES [miRNA vs RNA] GO: immune response</t>
+  </si>
+  <si>
+    <t>TCGA-CESC [miRNA vs RNA] GO: immune response</t>
+  </si>
+  <si>
+    <t>TCGA-KIRP [miRNA vs RNA] GO: immune response</t>
+  </si>
+  <si>
+    <t>TCGA-MESO [miRNA vs RNA] GO: immune response</t>
+  </si>
+  <si>
+    <t>TCGA-LUSC [miRNA vs RNA] GO: immune response</t>
+  </si>
+  <si>
+    <t>TCGA-KIRC [miRNA vs RNA] GO: immune response</t>
+  </si>
+  <si>
+    <t>TCGA-BLCA miRNA vs RNA] GO: immune response</t>
+  </si>
+  <si>
+    <t>TCGA-HNSC [miRNA vs RNA] GO: immune response</t>
+  </si>
+  <si>
+    <t>TCGA-LUAD [miRNA vs RNA] GO: immune response</t>
+  </si>
+  <si>
+    <t>TCGA-BRCA [miRNA vs RNA] GO: immune response</t>
+  </si>
+  <si>
+    <t>TCGA-PAAD [miRNA vs RNA] GO: immune response</t>
+  </si>
+  <si>
+    <t>TCGA-LIHC [miRNA vs RNA] GO: immune response</t>
+  </si>
+  <si>
+    <t>TCGA-SKCM [miRNA vs RNA] GO: immune response</t>
   </si>
 </sst>
 </file>
@@ -803,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AAB48A-BDC5-4C81-ADF8-EB1CEAE382C7}">
   <dimension ref="A1:A137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A137"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,12 +813,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -836,662 +833,662 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
